--- a/envo/document/data/list/15.xlsx
+++ b/envo/document/data/list/15.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>button</t>
   </si>
@@ -75,12 +75,6 @@
     <t>quần lót nữ</t>
   </si>
   <si>
-    <t>coat</t>
-  </si>
-  <si>
-    <t>áo khoác</t>
-  </si>
-  <si>
     <t>dress</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>knickers</t>
   </si>
   <si>
-    <t>miniskirt</t>
-  </si>
-  <si>
     <t>váy ngắn</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>áo sơ mi</t>
   </si>
   <si>
-    <t>pair of shoes</t>
-  </si>
-  <si>
     <t>đôi giày</t>
   </si>
   <si>
@@ -216,15 +204,6 @@
     <t>tất dài</t>
   </si>
   <si>
-    <t>sweater</t>
-  </si>
-  <si>
-    <t>swimming costume</t>
-  </si>
-  <si>
-    <t>quần áo bơi</t>
-  </si>
-  <si>
     <t>tie</t>
   </si>
   <si>
@@ -237,9 +216,6 @@
     <t>bộ đồ thể thao</t>
   </si>
   <si>
-    <t>pair of trousers</t>
-  </si>
-  <si>
     <t>chiếc quần dài</t>
   </si>
   <si>
@@ -255,12 +231,6 @@
     <t>quần lót nam</t>
   </si>
   <si>
-    <t>wellingtons</t>
-  </si>
-  <si>
-    <t>ủng cao su</t>
-  </si>
-  <si>
     <t>bracelet</t>
   </si>
   <si>
@@ -294,9 +264,6 @@
     <t>dây buộc tóc</t>
   </si>
   <si>
-    <t>keys</t>
-  </si>
-  <si>
     <t>chìa khóa</t>
   </si>
   <si>
@@ -315,9 +282,6 @@
     <t>makeup</t>
   </si>
   <si>
-    <t>đồ trang điểm</t>
-  </si>
-  <si>
     <t>necklace</t>
   </si>
   <si>
@@ -360,12 +324,6 @@
     <t>đồng hồ</t>
   </si>
   <si>
-    <t>wedding ring</t>
-  </si>
-  <si>
-    <t>nhẫn cưới</t>
-  </si>
-  <si>
     <t>high heels</t>
   </si>
   <si>
@@ -373,6 +331,21 @@
   </si>
   <si>
     <t>hair band</t>
+  </si>
+  <si>
+    <t>mini skirt</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>trang điểm</t>
   </si>
 </sst>
 </file>
@@ -721,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,79 +764,79 @@
     </row>
     <row r="8" spans="1:2" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -871,353 +844,313 @@
     </row>
     <row r="18" spans="1:2" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75">
       <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75">
       <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75">
       <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75">
       <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75">
       <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75">
       <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.75">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" ht="18.75">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2" ht="18.75">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.75">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18.75">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18.75">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18.75">
-      <c r="A57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18.75">
-      <c r="A58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18.75">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18.75">
-      <c r="A60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18.75">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/envo/document/data/list/15.xlsx
+++ b/envo/document/data/list/15.xlsx
@@ -222,9 +222,6 @@
     <t>t-shirt</t>
   </si>
   <si>
-    <t>áo phông</t>
-  </si>
-  <si>
     <t>underpants</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>trang điểm</t>
+  </si>
+  <si>
+    <t>áo thun</t>
   </si>
 </sst>
 </file>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="13" spans="1:2" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="18" spans="1:2" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="19" spans="1:2" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="26" spans="1:2" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>51</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="34" spans="1:2" ht="18.75">
       <c r="A34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>66</v>
@@ -983,151 +983,151 @@
         <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75">
       <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75">
       <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75">
       <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75">
       <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75">
       <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75">
       <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75">
       <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75">
       <c r="A45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18.75">
       <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75">
       <c r="A48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75">
       <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75">
       <c r="A50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75">
       <c r="A51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75">
       <c r="A52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75">
       <c r="A53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18.75">

--- a/envo/document/data/list/15.xlsx
+++ b/envo/document/data/list/15.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>button</t>
   </si>
@@ -57,18 +57,9 @@
     <t>bikini</t>
   </si>
   <si>
-    <t>blouse</t>
-  </si>
-  <si>
-    <t>áo sơ mi nữ</t>
-  </si>
-  <si>
     <t>boots</t>
   </si>
   <si>
-    <t>bốt</t>
-  </si>
-  <si>
     <t>bra</t>
   </si>
   <si>
@@ -87,21 +78,12 @@
     <t>áo choàng tắm</t>
   </si>
   <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>găng tay</t>
-  </si>
-  <si>
     <t>hat</t>
   </si>
   <si>
     <t>mũ</t>
   </si>
   <si>
-    <t>giày cao gót</t>
-  </si>
-  <si>
     <t>jacket</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>scarf</t>
   </si>
   <si>
-    <t>khăn</t>
-  </si>
-  <si>
     <t>shirt</t>
   </si>
   <si>
@@ -174,9 +153,6 @@
     <t>đôi giày</t>
   </si>
   <si>
-    <t>shorts</t>
-  </si>
-  <si>
     <t>quần soóc</t>
   </si>
   <si>
@@ -192,15 +168,9 @@
     <t>dép đi trong nhà</t>
   </si>
   <si>
-    <t>socks</t>
-  </si>
-  <si>
     <t>tất</t>
   </si>
   <si>
-    <t>stockings</t>
-  </si>
-  <si>
     <t>tất dài</t>
   </si>
   <si>
@@ -234,9 +204,6 @@
     <t>vòng tay</t>
   </si>
   <si>
-    <t>earrings</t>
-  </si>
-  <si>
     <t>khuyên tai</t>
   </si>
   <si>
@@ -321,9 +288,6 @@
     <t>đồng hồ</t>
   </si>
   <si>
-    <t>high heels</t>
-  </si>
-  <si>
     <t xml:space="preserve">nightie </t>
   </si>
   <si>
@@ -346,6 +310,33 @@
   </si>
   <si>
     <t>áo thun</t>
+  </si>
+  <si>
+    <t>ao nguc nữ</t>
+  </si>
+  <si>
+    <t>doi bốt</t>
+  </si>
+  <si>
+    <t>doi găng tay</t>
+  </si>
+  <si>
+    <t>khăn choang co</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>earring</t>
+  </si>
+  <si>
+    <t>glove</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>stocking</t>
   </si>
 </sst>
 </file>
@@ -694,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,116 +734,116 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
@@ -860,297 +851,281 @@
     </row>
     <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
+      <c r="A30" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
+      <c r="A31" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18.75">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18.75">
-      <c r="A55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18.75">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/envo/document/data/list/15.xlsx
+++ b/envo/document/data/list/15.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>button</t>
   </si>
@@ -66,12 +66,6 @@
     <t>quần lót nữ</t>
   </si>
   <si>
-    <t>dress</t>
-  </si>
-  <si>
-    <t>váy liền</t>
-  </si>
-  <si>
     <t>dressing gown</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>khăn tay</t>
   </si>
   <si>
-    <t>dây buộc tóc</t>
-  </si>
-  <si>
     <t>chìa khóa</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>mini skirt</t>
   </si>
   <si>
-    <t>shoes</t>
-  </si>
-  <si>
     <t>trousers</t>
   </si>
   <si>
@@ -337,6 +325,12 @@
   </si>
   <si>
     <t>stocking</t>
+  </si>
+  <si>
+    <t>shoe</t>
+  </si>
+  <si>
+    <t>cai tóc</t>
   </si>
 </sst>
 </file>
@@ -685,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75">
@@ -742,15 +736,15 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75">
@@ -763,18 +757,18 @@
     </row>
     <row r="9" spans="1:2" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75">
@@ -806,31 +800,31 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75">
@@ -862,36 +856,36 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75">
       <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>45</v>
@@ -907,10 +901,10 @@
     </row>
     <row r="27" spans="1:2" ht="18.75">
       <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75">
@@ -918,12 +912,12 @@
         <v>102</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75">
+      <c r="A29" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>51</v>
@@ -939,26 +933,26 @@
     </row>
     <row r="31" spans="1:2" ht="18.75">
       <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75">
       <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75">
@@ -971,15 +965,15 @@
     </row>
     <row r="35" spans="1:2" ht="18.75">
       <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>62</v>
@@ -1003,10 +997,10 @@
     </row>
     <row r="39" spans="1:2" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75">
@@ -1014,118 +1008,110 @@
         <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75">
       <c r="A42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75">
       <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75">
       <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18.75">
       <c r="A47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75">
       <c r="A48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75">
       <c r="A49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75">
       <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75">
       <c r="A52" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75">
       <c r="A53" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18.75">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/envo/document/data/list/15.xlsx
+++ b/envo/document/data/list/15.xlsx
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
